--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/RowCollection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/RowCollection.xlsx
@@ -433,10 +433,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="1" t="s"/>
@@ -507,7 +504,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" s="2" customFormat="1"/>
     <x:row r="2" s="2" customFormat="1"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/RowCollection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/RowCollection.xlsx
@@ -89,7 +89,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
+  <x:cellStyleXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -108,8 +108,23 @@
     <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
+  <x:cellXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -132,6 +147,26 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -436,48 +471,48 @@
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="1" t="s"/>
-      <x:c r="B1" s="1" t="s"/>
+      <x:c r="A1" s="6" t="s"/>
+      <x:c r="B1" s="6" t="s"/>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="1" t="s"/>
-      <x:c r="B2" s="1" t="s"/>
+      <x:c r="A2" s="6" t="s"/>
+      <x:c r="B2" s="6" t="s"/>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="B4" s="2" t="s"/>
-      <x:c r="C4" s="2" t="s"/>
+      <x:c r="B4" s="7" t="s"/>
+      <x:c r="C4" s="7" t="s"/>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="B5" s="2" t="s"/>
-      <x:c r="C5" s="2" t="s"/>
+      <x:c r="B5" s="7" t="s"/>
+      <x:c r="C5" s="7" t="s"/>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="B7" s="3" t="s"/>
-      <x:c r="C7" s="3" t="s"/>
+      <x:c r="B7" s="8" t="s"/>
+      <x:c r="C7" s="8" t="s"/>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="B8" s="3" t="s"/>
-      <x:c r="C8" s="3" t="s"/>
+      <x:c r="B8" s="8" t="s"/>
+      <x:c r="C8" s="8" t="s"/>
     </x:row>
     <x:row r="10" spans="1:3">
-      <x:c r="B10" s="4" t="s"/>
-      <x:c r="C10" s="4" t="s"/>
+      <x:c r="B10" s="9" t="s"/>
+      <x:c r="C10" s="9" t="s"/>
     </x:row>
     <x:row r="11" spans="1:3">
-      <x:c r="B11" s="4" t="s"/>
-      <x:c r="C11" s="4" t="s"/>
+      <x:c r="B11" s="9" t="s"/>
+      <x:c r="C11" s="9" t="s"/>
     </x:row>
     <x:row r="13" spans="1:3">
-      <x:c r="B13" s="4" t="s"/>
-      <x:c r="C13" s="4" t="s"/>
+      <x:c r="B13" s="9" t="s"/>
+      <x:c r="C13" s="9" t="s"/>
     </x:row>
     <x:row r="14" spans="1:3">
-      <x:c r="B14" s="4" t="s"/>
-      <x:c r="C14" s="4" t="s"/>
+      <x:c r="B14" s="9" t="s"/>
+      <x:c r="C14" s="9" t="s"/>
     </x:row>
     <x:row r="16" spans="1:3">
-      <x:c r="B16" s="5" t="s"/>
-      <x:c r="C16" s="5" t="s"/>
+      <x:c r="B16" s="10" t="s"/>
+      <x:c r="C16" s="10" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -506,19 +541,19 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" s="2" customFormat="1"/>
-    <x:row r="2" s="2" customFormat="1"/>
+    <x:row r="1" s="7" customFormat="1"/>
+    <x:row r="2" s="7" customFormat="1"/>
     <x:row r="3"/>
-    <x:row r="4" s="3" customFormat="1"/>
-    <x:row r="5" s="3" customFormat="1"/>
+    <x:row r="4" s="8" customFormat="1"/>
+    <x:row r="5" s="8" customFormat="1"/>
     <x:row r="6"/>
-    <x:row r="7" s="4" customFormat="1"/>
-    <x:row r="8" s="4" customFormat="1"/>
+    <x:row r="7" s="9" customFormat="1"/>
+    <x:row r="8" s="9" customFormat="1"/>
     <x:row r="9"/>
-    <x:row r="10" s="4" customFormat="1"/>
-    <x:row r="11" s="4" customFormat="1"/>
+    <x:row r="10" s="9" customFormat="1"/>
+    <x:row r="11" s="9" customFormat="1"/>
     <x:row r="12"/>
-    <x:row r="13" s="5" customFormat="1"/>
+    <x:row r="13" s="10" customFormat="1"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/RowCollection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/RowCollection.xlsx
@@ -89,7 +89,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="11">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -108,23 +108,8 @@
     <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="11">
+  <x:cellXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -147,26 +132,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -471,48 +436,48 @@
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <x:sheetData>
     <x:row r="1" spans="1:3">
-      <x:c r="A1" s="6" t="s"/>
-      <x:c r="B1" s="6" t="s"/>
+      <x:c r="A1" s="1" t="s"/>
+      <x:c r="B1" s="1" t="s"/>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="6" t="s"/>
-      <x:c r="B2" s="6" t="s"/>
+      <x:c r="A2" s="1" t="s"/>
+      <x:c r="B2" s="1" t="s"/>
     </x:row>
     <x:row r="4" spans="1:3">
-      <x:c r="B4" s="7" t="s"/>
-      <x:c r="C4" s="7" t="s"/>
+      <x:c r="B4" s="2" t="s"/>
+      <x:c r="C4" s="2" t="s"/>
     </x:row>
     <x:row r="5" spans="1:3">
-      <x:c r="B5" s="7" t="s"/>
-      <x:c r="C5" s="7" t="s"/>
+      <x:c r="B5" s="2" t="s"/>
+      <x:c r="C5" s="2" t="s"/>
     </x:row>
     <x:row r="7" spans="1:3">
-      <x:c r="B7" s="8" t="s"/>
-      <x:c r="C7" s="8" t="s"/>
+      <x:c r="B7" s="3" t="s"/>
+      <x:c r="C7" s="3" t="s"/>
     </x:row>
     <x:row r="8" spans="1:3">
-      <x:c r="B8" s="8" t="s"/>
-      <x:c r="C8" s="8" t="s"/>
+      <x:c r="B8" s="3" t="s"/>
+      <x:c r="C8" s="3" t="s"/>
     </x:row>
     <x:row r="10" spans="1:3">
-      <x:c r="B10" s="9" t="s"/>
-      <x:c r="C10" s="9" t="s"/>
+      <x:c r="B10" s="4" t="s"/>
+      <x:c r="C10" s="4" t="s"/>
     </x:row>
     <x:row r="11" spans="1:3">
-      <x:c r="B11" s="9" t="s"/>
-      <x:c r="C11" s="9" t="s"/>
+      <x:c r="B11" s="4" t="s"/>
+      <x:c r="C11" s="4" t="s"/>
     </x:row>
     <x:row r="13" spans="1:3">
-      <x:c r="B13" s="9" t="s"/>
-      <x:c r="C13" s="9" t="s"/>
+      <x:c r="B13" s="4" t="s"/>
+      <x:c r="C13" s="4" t="s"/>
     </x:row>
     <x:row r="14" spans="1:3">
-      <x:c r="B14" s="9" t="s"/>
-      <x:c r="C14" s="9" t="s"/>
+      <x:c r="B14" s="4" t="s"/>
+      <x:c r="C14" s="4" t="s"/>
     </x:row>
     <x:row r="16" spans="1:3">
-      <x:c r="B16" s="10" t="s"/>
-      <x:c r="C16" s="10" t="s"/>
+      <x:c r="B16" s="5" t="s"/>
+      <x:c r="C16" s="5" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -541,19 +506,19 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" s="7" customFormat="1"/>
-    <x:row r="2" s="7" customFormat="1"/>
+    <x:row r="1" s="2" customFormat="1"/>
+    <x:row r="2" s="2" customFormat="1"/>
     <x:row r="3"/>
-    <x:row r="4" s="8" customFormat="1"/>
-    <x:row r="5" s="8" customFormat="1"/>
+    <x:row r="4" s="3" customFormat="1"/>
+    <x:row r="5" s="3" customFormat="1"/>
     <x:row r="6"/>
-    <x:row r="7" s="9" customFormat="1"/>
-    <x:row r="8" s="9" customFormat="1"/>
+    <x:row r="7" s="4" customFormat="1"/>
+    <x:row r="8" s="4" customFormat="1"/>
     <x:row r="9"/>
-    <x:row r="10" s="9" customFormat="1"/>
-    <x:row r="11" s="9" customFormat="1"/>
+    <x:row r="10" s="4" customFormat="1"/>
+    <x:row r="11" s="4" customFormat="1"/>
     <x:row r="12"/>
-    <x:row r="13" s="10" customFormat="1"/>
+    <x:row r="13" s="5" customFormat="1"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/RowCollection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/RowCollection.xlsx
@@ -483,14 +483,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -523,14 +516,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/RowCollection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/RowCollection.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/RowCollection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/RowCollection.xlsx
@@ -435,47 +435,47 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:3" customFormat="1" ht="15" customHeight="1">
       <x:c r="A1" s="1" t="s"/>
       <x:c r="B1" s="1" t="s"/>
     </x:row>
-    <x:row r="2" spans="1:3">
+    <x:row r="2" spans="1:3" customFormat="1" ht="15" customHeight="1">
       <x:c r="A2" s="1" t="s"/>
       <x:c r="B2" s="1" t="s"/>
     </x:row>
-    <x:row r="4" spans="1:3">
+    <x:row r="4" spans="1:3" customFormat="1" ht="15" customHeight="1">
       <x:c r="B4" s="2" t="s"/>
       <x:c r="C4" s="2" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:3">
+    <x:row r="5" spans="1:3" customFormat="1" ht="15" customHeight="1">
       <x:c r="B5" s="2" t="s"/>
       <x:c r="C5" s="2" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:3">
+    <x:row r="7" spans="1:3" customFormat="1" ht="15" customHeight="1">
       <x:c r="B7" s="3" t="s"/>
       <x:c r="C7" s="3" t="s"/>
     </x:row>
-    <x:row r="8" spans="1:3">
+    <x:row r="8" spans="1:3" customFormat="1" ht="15" customHeight="1">
       <x:c r="B8" s="3" t="s"/>
       <x:c r="C8" s="3" t="s"/>
     </x:row>
-    <x:row r="10" spans="1:3">
+    <x:row r="10" spans="1:3" customFormat="1" ht="15" customHeight="1">
       <x:c r="B10" s="4" t="s"/>
       <x:c r="C10" s="4" t="s"/>
     </x:row>
-    <x:row r="11" spans="1:3">
+    <x:row r="11" spans="1:3" customFormat="1" ht="15" customHeight="1">
       <x:c r="B11" s="4" t="s"/>
       <x:c r="C11" s="4" t="s"/>
     </x:row>
-    <x:row r="13" spans="1:3">
+    <x:row r="13" spans="1:3" customFormat="1" ht="15" customHeight="1">
       <x:c r="B13" s="4" t="s"/>
       <x:c r="C13" s="4" t="s"/>
     </x:row>
-    <x:row r="14" spans="1:3">
+    <x:row r="14" spans="1:3" customFormat="1" ht="15" customHeight="1">
       <x:c r="B14" s="4" t="s"/>
       <x:c r="C14" s="4" t="s"/>
     </x:row>
-    <x:row r="16" spans="1:3">
+    <x:row r="16" spans="1:3" customFormat="1" ht="15" customHeight="1">
       <x:c r="B16" s="5" t="s"/>
       <x:c r="C16" s="5" t="s"/>
     </x:row>
@@ -499,19 +499,19 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" s="2" customFormat="1"/>
-    <x:row r="2" s="2" customFormat="1"/>
-    <x:row r="3"/>
-    <x:row r="4" s="3" customFormat="1"/>
-    <x:row r="5" s="3" customFormat="1"/>
-    <x:row r="6"/>
-    <x:row r="7" s="4" customFormat="1"/>
-    <x:row r="8" s="4" customFormat="1"/>
-    <x:row r="9"/>
-    <x:row r="10" s="4" customFormat="1"/>
-    <x:row r="11" s="4" customFormat="1"/>
-    <x:row r="12"/>
-    <x:row r="13" s="5" customFormat="1"/>
+    <x:row r="1" s="2" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="2" s="2" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="3" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="4" s="3" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="5" s="3" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="6" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="7" s="4" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="8" s="4" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="9" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="10" s="4" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="11" s="4" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="12" customFormat="1" ht="15" customHeight="1"/>
+    <x:row r="13" s="5" customFormat="1" ht="15" customHeight="1"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/RowCollection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/RowCollection.xlsx
@@ -23,7 +23,14 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/RowCollection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/RowCollection.xlsx
@@ -438,7 +438,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:C16"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <x:sheetData>
@@ -502,7 +502,7 @@
   </x:sheetPr>
   <x:dimension ref="A1"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/RowCollection.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Rows/RowCollection.xlsx
@@ -97,47 +97,47 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
